--- a/dataset/Correlations/Comparisons (Data 1 - 3).xlsx
+++ b/dataset/Correlations/Comparisons (Data 1 - 3).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manar 2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brenn\Documents\School\M.A.Sc\CISC 850\False-Data-Injection-Detection-for-Smart-Grid-Systems\dataset\Correlations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C746EF-A82D-4F62-AA0A-C96507536E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F677E56D-75EF-4B19-8B91-278DE674D13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78A7850F-50F7-4D4C-B69C-B63CE402B4AE}"/>
   </bookViews>
@@ -4201,7 +4201,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CBA79E9F-5299-48FA-9C21-9FB55AF263FD}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4234,7 +4234,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8648700" cy="6276975"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4628,8 +4628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6542BDF5-72E0-4BCC-86F7-A3CD0FB3C9C6}">
   <dimension ref="E9:ED32"/>
   <sheetViews>
-    <sheetView topLeftCell="DI16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:ED32"/>
+    <sheetView topLeftCell="DQ1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="DS37" sqref="DS37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
